--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H2">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I2">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J2">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0526729216486042</v>
+        <v>0.052894</v>
       </c>
       <c r="N2">
-        <v>0.0526729216486042</v>
+        <v>0.105788</v>
       </c>
       <c r="O2">
-        <v>0.003571479909717638</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P2">
-        <v>0.003571479909717638</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q2">
-        <v>1.440106880750757</v>
+        <v>1.455906133438</v>
       </c>
       <c r="R2">
-        <v>1.440106880750757</v>
+        <v>5.823624533752</v>
       </c>
       <c r="S2">
-        <v>0.0001123690443226095</v>
+        <v>9.435739954806852E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001123690443226095</v>
+        <v>5.761668756313152E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H3">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I3">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J3">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64733163008117</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N3">
-        <v>2.64733163008117</v>
+        <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1795019420846099</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P3">
-        <v>0.1795019420846099</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q3">
-        <v>72.37951449784515</v>
+        <v>77.50603216059567</v>
       </c>
       <c r="R3">
-        <v>72.37951449784515</v>
+        <v>465.036192963574</v>
       </c>
       <c r="S3">
-        <v>0.005647648088742767</v>
+        <v>0.005023172494433488</v>
       </c>
       <c r="T3">
-        <v>0.005647648088742767</v>
+        <v>0.004600888137660869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H4">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I4">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J4">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.423198927845002</v>
+        <v>0.226329</v>
       </c>
       <c r="N4">
-        <v>0.423198927845002</v>
+        <v>0.678987</v>
       </c>
       <c r="O4">
-        <v>0.0286949427012185</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P4">
-        <v>0.0286949427012185</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q4">
-        <v>11.57049331688402</v>
+        <v>6.229700519433</v>
       </c>
       <c r="R4">
-        <v>11.57049331688402</v>
+        <v>37.378203116598</v>
       </c>
       <c r="S4">
-        <v>0.0009028255428385947</v>
+        <v>0.0004037474171421107</v>
       </c>
       <c r="T4">
-        <v>0.0009028255428385947</v>
+        <v>0.0003698054773549739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H5">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I5">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J5">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.439422695519237</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N5">
-        <v>0.439422695519237</v>
+        <v>1.684941</v>
       </c>
       <c r="O5">
-        <v>0.02979499294515617</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P5">
-        <v>0.02979499294515617</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q5">
-        <v>12.01406011986554</v>
+        <v>15.459320757119</v>
       </c>
       <c r="R5">
-        <v>12.01406011986554</v>
+        <v>92.75592454271398</v>
       </c>
       <c r="S5">
-        <v>0.0009374362918118128</v>
+        <v>0.001001919884750142</v>
       </c>
       <c r="T5">
-        <v>0.0009374362918118128</v>
+        <v>0.0009176912235727151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H6">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I6">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J6">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1855798851687</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N6">
-        <v>11.1855798851687</v>
+        <v>1.50581</v>
       </c>
       <c r="O6">
-        <v>0.7584366423592978</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P6">
-        <v>0.7584366423592978</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q6">
-        <v>305.8199555605165</v>
+        <v>13.81579520545667</v>
       </c>
       <c r="R6">
-        <v>305.8199555605165</v>
+        <v>82.89477123274</v>
       </c>
       <c r="S6">
-        <v>0.02386260117249293</v>
+        <v>0.0008954028548510674</v>
       </c>
       <c r="T6">
-        <v>0.02386260117249293</v>
+        <v>0.0008201287887041923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>762.489990839008</v>
+        <v>27.524977</v>
       </c>
       <c r="H7">
-        <v>762.489990839008</v>
+        <v>55.049954</v>
       </c>
       <c r="I7">
-        <v>0.8774559148313684</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J7">
-        <v>0.8774559148313684</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0526729216486042</v>
+        <v>12.2520685</v>
       </c>
       <c r="N7">
-        <v>0.0526729216486042</v>
+        <v>24.504137</v>
       </c>
       <c r="O7">
-        <v>0.003571479909717638</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P7">
-        <v>0.003571479909717638</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q7">
-        <v>40.162575545308</v>
+        <v>337.2379036649245</v>
       </c>
       <c r="R7">
-        <v>40.162575545308</v>
+        <v>1348.951614659698</v>
       </c>
       <c r="S7">
-        <v>0.003133816171483143</v>
+        <v>0.02185641703680578</v>
       </c>
       <c r="T7">
-        <v>0.003133816171483143</v>
+        <v>0.01334600527028747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H8">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J8">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.64733163008117</v>
+        <v>0.052894</v>
       </c>
       <c r="N8">
-        <v>2.64733163008117</v>
+        <v>0.105788</v>
       </c>
       <c r="O8">
-        <v>0.1795019420846099</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P8">
-        <v>0.1795019420846099</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q8">
-        <v>2018.563870368407</v>
+        <v>43.91036861264666</v>
       </c>
       <c r="R8">
-        <v>2018.563870368407</v>
+        <v>263.46221167588</v>
       </c>
       <c r="S8">
-        <v>0.1575050408058587</v>
+        <v>0.002845834700690826</v>
       </c>
       <c r="T8">
-        <v>0.1575050408058587</v>
+        <v>0.002606593170085582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H9">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J9">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.423198927845002</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N9">
-        <v>0.423198927845002</v>
+        <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.0286949427012185</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P9">
-        <v>0.0286949427012185</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q9">
-        <v>322.6849466156136</v>
+        <v>2337.594686711534</v>
       </c>
       <c r="R9">
-        <v>322.6849466156136</v>
+        <v>21038.35218040381</v>
       </c>
       <c r="S9">
-        <v>0.02517854719893138</v>
+        <v>0.151499709198028</v>
       </c>
       <c r="T9">
-        <v>0.02517854719893138</v>
+        <v>0.2081453152407289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H10">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J10">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.439422695519237</v>
+        <v>0.226329</v>
       </c>
       <c r="N10">
-        <v>0.439422695519237</v>
+        <v>0.678987</v>
       </c>
       <c r="O10">
-        <v>0.02979499294515617</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P10">
-        <v>0.02979499294515617</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q10">
-        <v>335.0554070809152</v>
+        <v>187.88879301493</v>
       </c>
       <c r="R10">
-        <v>335.0554070809152</v>
+        <v>1690.99913713437</v>
       </c>
       <c r="S10">
-        <v>0.02614379279208617</v>
+        <v>0.01217708855395043</v>
       </c>
       <c r="T10">
-        <v>0.02614379279208617</v>
+        <v>0.01673009109517998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H11">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J11">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1855798851687</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N11">
-        <v>11.1855798851687</v>
+        <v>1.684941</v>
       </c>
       <c r="O11">
-        <v>0.7584366423592978</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P11">
-        <v>0.7584366423592978</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q11">
-        <v>8528.892704171274</v>
+        <v>466.2556584903232</v>
       </c>
       <c r="R11">
-        <v>8528.892704171274</v>
+        <v>4196.30092641291</v>
       </c>
       <c r="S11">
-        <v>0.665494717863009</v>
+        <v>0.03021806863044769</v>
       </c>
       <c r="T11">
-        <v>0.665494717863009</v>
+        <v>0.04151657751916259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H12">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J12">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0526729216486042</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N12">
-        <v>0.0526729216486042</v>
+        <v>1.50581</v>
       </c>
       <c r="O12">
-        <v>0.003571479909717638</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P12">
-        <v>0.003571479909717638</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q12">
-        <v>0.02617421322413391</v>
+        <v>416.6866573436778</v>
       </c>
       <c r="R12">
-        <v>0.02617421322413391</v>
+        <v>3750.1799160931</v>
       </c>
       <c r="S12">
-        <v>2.042328500200516E-06</v>
+        <v>0.02700549747701222</v>
       </c>
       <c r="T12">
-        <v>2.042328500200516E-06</v>
+        <v>0.03710282887895198</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H13">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J13">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.64733163008117</v>
+        <v>12.2520685</v>
       </c>
       <c r="N13">
-        <v>2.64733163008117</v>
+        <v>24.504137</v>
       </c>
       <c r="O13">
-        <v>0.1795019420846099</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P13">
-        <v>0.1795019420846099</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q13">
-        <v>1.315511279647704</v>
+        <v>10171.15068065181</v>
       </c>
       <c r="R13">
-        <v>1.315511279647704</v>
+        <v>61026.90408391086</v>
       </c>
       <c r="S13">
-        <v>0.000102647065482086</v>
+        <v>0.6591931351862405</v>
       </c>
       <c r="T13">
-        <v>0.000102647065482086</v>
+        <v>0.6037765733641001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H14">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I14">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J14">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.423198927845002</v>
+        <v>0.052894</v>
       </c>
       <c r="N14">
-        <v>0.423198927845002</v>
+        <v>0.105788</v>
       </c>
       <c r="O14">
-        <v>0.0286949427012185</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P14">
-        <v>0.0286949427012185</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q14">
-        <v>0.2102958906957362</v>
+        <v>0.05354591855</v>
       </c>
       <c r="R14">
-        <v>0.2102958906957362</v>
+        <v>0.3212755113</v>
       </c>
       <c r="S14">
-        <v>1.640902392614959E-05</v>
+        <v>3.470315506439786E-06</v>
       </c>
       <c r="T14">
-        <v>1.640902392614959E-05</v>
+        <v>3.178575584496245E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H15">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I15">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J15">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.439422695519237</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N15">
-        <v>0.439422695519237</v>
+        <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.02979499294515617</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P15">
-        <v>0.02979499294515617</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q15">
-        <v>0.2183578007078134</v>
+        <v>2.850548939858334</v>
       </c>
       <c r="R15">
-        <v>0.2183578007078134</v>
+        <v>25.654940458725</v>
       </c>
       <c r="S15">
-        <v>1.703808079378967E-05</v>
+        <v>0.0001847443176947026</v>
       </c>
       <c r="T15">
-        <v>1.703808079378967E-05</v>
+        <v>0.0002538200531806552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H16">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I16">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J16">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>11.1855798851687</v>
+        <v>0.226329</v>
       </c>
       <c r="N16">
-        <v>11.1855798851687</v>
+        <v>0.678987</v>
       </c>
       <c r="O16">
-        <v>0.7584366423592978</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P16">
-        <v>0.7584366423592978</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q16">
-        <v>5.558335170833403</v>
+        <v>0.229118504925</v>
       </c>
       <c r="R16">
-        <v>5.558335170833403</v>
+        <v>2.062066544325</v>
       </c>
       <c r="S16">
-        <v>0.0004337072612594485</v>
+        <v>1.484918966720253E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004337072612594485</v>
+        <v>2.040128842959836E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H17">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I17">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J17">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0526729216486042</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N17">
-        <v>0.0526729216486042</v>
+        <v>1.684941</v>
       </c>
       <c r="O17">
-        <v>0.003571479909717638</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P17">
-        <v>0.003571479909717638</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q17">
-        <v>0.0662998097937087</v>
+        <v>0.568569299275</v>
       </c>
       <c r="R17">
-        <v>0.0662998097937087</v>
+        <v>5.117123693475</v>
       </c>
       <c r="S17">
-        <v>5.173259266288606E-06</v>
+        <v>3.684902433632144E-05</v>
       </c>
       <c r="T17">
-        <v>5.173259266288606E-06</v>
+        <v>5.062684164476771E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H18">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I18">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J18">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.64733163008117</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N18">
-        <v>2.64733163008117</v>
+        <v>1.50581</v>
       </c>
       <c r="O18">
-        <v>0.1795019420846099</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P18">
-        <v>0.1795019420846099</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q18">
-        <v>3.332216593303429</v>
+        <v>0.5081230360833334</v>
       </c>
       <c r="R18">
-        <v>3.332216593303429</v>
+        <v>4.57310732475</v>
       </c>
       <c r="S18">
-        <v>0.0002600070863283744</v>
+        <v>3.293149691050085E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002600070863283744</v>
+        <v>4.524455421116092E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H19">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I19">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J19">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.423198927845002</v>
+        <v>12.2520685</v>
       </c>
       <c r="N19">
-        <v>0.423198927845002</v>
+        <v>24.504137</v>
       </c>
       <c r="O19">
-        <v>0.0286949427012185</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P19">
-        <v>0.0286949427012185</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q19">
-        <v>0.5326837308970235</v>
+        <v>12.4030752442625</v>
       </c>
       <c r="R19">
-        <v>0.5326837308970235</v>
+        <v>74.418451465575</v>
       </c>
       <c r="S19">
-        <v>4.156438842643116E-05</v>
+        <v>0.0008038443547758245</v>
       </c>
       <c r="T19">
-        <v>4.156438842643116E-05</v>
+        <v>0.0007362673610178003</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H20">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I20">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J20">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.439422695519237</v>
+        <v>0.052894</v>
       </c>
       <c r="N20">
-        <v>0.439422695519237</v>
+        <v>0.105788</v>
       </c>
       <c r="O20">
-        <v>0.02979499294515617</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P20">
-        <v>0.02979499294515617</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q20">
-        <v>0.5531047114933714</v>
+        <v>0.069827114902</v>
       </c>
       <c r="R20">
-        <v>0.5531047114933714</v>
+        <v>0.4189626894119999</v>
       </c>
       <c r="S20">
-        <v>4.315780215454688E-05</v>
+        <v>4.52550121795162E-06</v>
       </c>
       <c r="T20">
-        <v>4.315780215454688E-05</v>
+        <v>4.145054722631349E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H21">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I21">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J21">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.1855798851687</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N21">
-        <v>11.1855798851687</v>
+        <v>8.447531</v>
       </c>
       <c r="O21">
-        <v>0.7584366423592978</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P21">
-        <v>0.7584366423592978</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q21">
-        <v>14.07937504903282</v>
+        <v>3.717288147207666</v>
       </c>
       <c r="R21">
-        <v>14.07937504903282</v>
+        <v>33.455593324869</v>
       </c>
       <c r="S21">
-        <v>0.001098589236720151</v>
+        <v>0.0002409177589719317</v>
       </c>
       <c r="T21">
-        <v>0.001098589236720151</v>
+        <v>0.0003309966940118418</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H22">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I22">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J22">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.0526729216486042</v>
+        <v>0.226329</v>
       </c>
       <c r="N22">
-        <v>0.0526729216486042</v>
+        <v>0.678987</v>
       </c>
       <c r="O22">
-        <v>0.003571479909717638</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P22">
-        <v>0.003571479909717638</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q22">
-        <v>1.127516168981762</v>
+        <v>0.298784381757</v>
       </c>
       <c r="R22">
-        <v>1.127516168981762</v>
+        <v>2.689059435813</v>
       </c>
       <c r="S22">
-        <v>8.797813277631192E-05</v>
+        <v>1.936424103221107E-05</v>
       </c>
       <c r="T22">
-        <v>8.797813277631192E-05</v>
+        <v>2.660451346991428E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H23">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I23">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J23">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.64733163008117</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N23">
-        <v>2.64733163008117</v>
+        <v>1.684941</v>
       </c>
       <c r="O23">
-        <v>0.1795019420846099</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P23">
-        <v>0.1795019420846099</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q23">
-        <v>56.66876118029921</v>
+        <v>0.7414487390509998</v>
       </c>
       <c r="R23">
-        <v>56.66876118029921</v>
+        <v>6.673038651458999</v>
       </c>
       <c r="S23">
-        <v>0.004421765232769908</v>
+        <v>4.805335543840273E-05</v>
       </c>
       <c r="T23">
-        <v>0.004421765232769908</v>
+        <v>6.602046214509384E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H24">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I24">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J24">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.423198927845002</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N24">
-        <v>0.423198927845002</v>
+        <v>1.50581</v>
       </c>
       <c r="O24">
-        <v>0.0286949427012185</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P24">
-        <v>0.0286949427012185</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q24">
-        <v>9.058993101318318</v>
+        <v>0.6626231575766667</v>
       </c>
       <c r="R24">
-        <v>9.058993101318318</v>
+        <v>5.96360841819</v>
       </c>
       <c r="S24">
-        <v>0.0007068575332336263</v>
+        <v>4.294466284142959E-05</v>
       </c>
       <c r="T24">
-        <v>0.0007068575332336263</v>
+        <v>5.900163394605732E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H25">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I25">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J25">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.439422695519237</v>
+        <v>12.2520685</v>
       </c>
       <c r="N25">
-        <v>0.439422695519237</v>
+        <v>24.504137</v>
       </c>
       <c r="O25">
-        <v>0.02979499294515617</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P25">
-        <v>0.02979499294515617</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q25">
-        <v>9.406278951466112</v>
+        <v>16.1743599451105</v>
       </c>
       <c r="R25">
-        <v>9.406278951466112</v>
+        <v>97.046159670663</v>
       </c>
       <c r="S25">
-        <v>0.0007339556463039064</v>
+        <v>0.001048261634952484</v>
       </c>
       <c r="T25">
-        <v>0.0007339556463039064</v>
+        <v>0.0009601371497320638</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H26">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I26">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J26">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.1855798851687</v>
+        <v>0.052894</v>
       </c>
       <c r="N26">
-        <v>11.1855798851687</v>
+        <v>0.105788</v>
       </c>
       <c r="O26">
-        <v>0.7584366423592978</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P26">
-        <v>0.7584366423592978</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q26">
-        <v>239.4384398135826</v>
+        <v>1.281061331489333</v>
       </c>
       <c r="R26">
-        <v>239.4384398135826</v>
+        <v>7.686367988935999</v>
       </c>
       <c r="S26">
-        <v>0.01868296653226361</v>
+        <v>8.302569315748216E-05</v>
       </c>
       <c r="T26">
-        <v>0.01868296653226361</v>
+        <v>7.6045950481024E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H27">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I27">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J27">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.0526729216486042</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N27">
-        <v>0.0526729216486042</v>
+        <v>8.447531</v>
       </c>
       <c r="O27">
-        <v>0.003571479909717638</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P27">
-        <v>0.003571479909717638</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q27">
-        <v>2.948943786198873</v>
+        <v>68.19806474998688</v>
       </c>
       <c r="R27">
-        <v>2.948943786198873</v>
+        <v>613.782582749882</v>
       </c>
       <c r="S27">
-        <v>0.0002301009733690844</v>
+        <v>0.00441992233992714</v>
       </c>
       <c r="T27">
-        <v>0.0002301009733690844</v>
+        <v>0.006072527357667365</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H28">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I28">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J28">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.64733163008117</v>
+        <v>0.226329</v>
       </c>
       <c r="N28">
-        <v>2.64733163008117</v>
+        <v>0.678987</v>
       </c>
       <c r="O28">
-        <v>0.1795019420846099</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P28">
-        <v>0.1795019420846099</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q28">
-        <v>148.2133877558029</v>
+        <v>5.481554242346</v>
       </c>
       <c r="R28">
-        <v>148.2133877558029</v>
+        <v>49.33398818111399</v>
       </c>
       <c r="S28">
-        <v>0.01156483380542807</v>
+        <v>0.0003552599936975798</v>
       </c>
       <c r="T28">
-        <v>0.01156483380542807</v>
+        <v>0.0004880913882411903</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H29">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I29">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J29">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.423198927845002</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N29">
-        <v>0.423198927845002</v>
+        <v>1.684941</v>
       </c>
       <c r="O29">
-        <v>0.0286949427012185</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P29">
-        <v>0.0286949427012185</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q29">
-        <v>23.693195849667</v>
+        <v>13.60275747054466</v>
       </c>
       <c r="R29">
-        <v>23.693195849667</v>
+        <v>122.424817234902</v>
       </c>
       <c r="S29">
-        <v>0.001848739013862322</v>
+        <v>0.0008815958612474077</v>
       </c>
       <c r="T29">
-        <v>0.001848739013862322</v>
+        <v>0.001211223766868143</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H30">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I30">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J30">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.439422695519237</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N30">
-        <v>0.439422695519237</v>
+        <v>1.50581</v>
       </c>
       <c r="O30">
-        <v>0.02979499294515617</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P30">
-        <v>0.02979499294515617</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q30">
-        <v>24.60149896584581</v>
+        <v>12.15660858553556</v>
       </c>
       <c r="R30">
-        <v>24.60149896584581</v>
+        <v>109.40947726982</v>
       </c>
       <c r="S30">
-        <v>0.001919612332005939</v>
+        <v>0.0007878708297946096</v>
       </c>
       <c r="T30">
-        <v>0.001919612332005939</v>
+        <v>0.001082455029812746</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H31">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I31">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J31">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.1855798851687</v>
+        <v>12.2520685</v>
       </c>
       <c r="N31">
-        <v>11.1855798851687</v>
+        <v>24.504137</v>
       </c>
       <c r="O31">
-        <v>0.7584366423592978</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P31">
-        <v>0.7584366423592978</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q31">
-        <v>626.2353646804676</v>
+        <v>296.7378376774024</v>
       </c>
       <c r="R31">
-        <v>626.2353646804676</v>
+        <v>1780.427026064414</v>
       </c>
       <c r="S31">
-        <v>0.04886406029355263</v>
+        <v>0.01923160433745704</v>
       </c>
       <c r="T31">
-        <v>0.04886406029355263</v>
+        <v>0.0176148560222542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>55.986019</v>
+      </c>
+      <c r="H32">
+        <v>111.972038</v>
+      </c>
+      <c r="I32">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J32">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.052894</v>
+      </c>
+      <c r="N32">
+        <v>0.105788</v>
+      </c>
+      <c r="O32">
+        <v>0.003223137300516178</v>
+      </c>
+      <c r="P32">
+        <v>0.002864772232626178</v>
+      </c>
+      <c r="Q32">
+        <v>2.961324488986</v>
+      </c>
+      <c r="R32">
+        <v>11.845297955944</v>
+      </c>
+      <c r="S32">
+        <v>0.0001919236903954091</v>
+      </c>
+      <c r="T32">
+        <v>0.0001171927941893119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>55.986019</v>
+      </c>
+      <c r="H33">
+        <v>111.972038</v>
+      </c>
+      <c r="I33">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J33">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.815843666666666</v>
+      </c>
+      <c r="N33">
+        <v>8.447531</v>
+      </c>
+      <c r="O33">
+        <v>0.1715856383418833</v>
+      </c>
+      <c r="P33">
+        <v>0.2287617900239049</v>
+      </c>
+      <c r="Q33">
+        <v>157.6478770230297</v>
+      </c>
+      <c r="R33">
+        <v>945.8872621381779</v>
+      </c>
+      <c r="S33">
+        <v>0.01021717223282805</v>
+      </c>
+      <c r="T33">
+        <v>0.009358242540655202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>55.986019</v>
+      </c>
+      <c r="H34">
+        <v>111.972038</v>
+      </c>
+      <c r="I34">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J34">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.226329</v>
+      </c>
+      <c r="N34">
+        <v>0.678987</v>
+      </c>
+      <c r="O34">
+        <v>0.01379153480713362</v>
+      </c>
+      <c r="P34">
+        <v>0.01838718100270494</v>
+      </c>
+      <c r="Q34">
+        <v>12.671259694251</v>
+      </c>
+      <c r="R34">
+        <v>76.02755816550599</v>
+      </c>
+      <c r="S34">
+        <v>0.0008212254116440909</v>
+      </c>
+      <c r="T34">
+        <v>0.0007521872400292883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>55.986019</v>
+      </c>
+      <c r="H35">
+        <v>111.972038</v>
+      </c>
+      <c r="I35">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J35">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.5616469999999999</v>
+      </c>
+      <c r="N35">
+        <v>1.684941</v>
+      </c>
+      <c r="O35">
+        <v>0.03422439965635062</v>
+      </c>
+      <c r="P35">
+        <v>0.04562873095637865</v>
+      </c>
+      <c r="Q35">
+        <v>31.44437961329299</v>
+      </c>
+      <c r="R35">
+        <v>188.666277679758</v>
+      </c>
+      <c r="S35">
+        <v>0.002037912900130644</v>
+      </c>
+      <c r="T35">
+        <v>0.001866591142985343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>55.986019</v>
+      </c>
+      <c r="H36">
+        <v>111.972038</v>
+      </c>
+      <c r="I36">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J36">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5019366666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.50581</v>
+      </c>
+      <c r="O36">
+        <v>0.03058590374768572</v>
+      </c>
+      <c r="P36">
+        <v>0.0407778072712484</v>
+      </c>
+      <c r="Q36">
+        <v>28.10143575679667</v>
+      </c>
+      <c r="R36">
+        <v>168.60861454078</v>
+      </c>
+      <c r="S36">
+        <v>0.001821256426275891</v>
+      </c>
+      <c r="T36">
+        <v>0.001668148385622262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>55.986019</v>
+      </c>
+      <c r="H37">
+        <v>111.972038</v>
+      </c>
+      <c r="I37">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J37">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>12.2520685</v>
+      </c>
+      <c r="N37">
+        <v>24.504137</v>
+      </c>
+      <c r="O37">
+        <v>0.7465893861464306</v>
+      </c>
+      <c r="P37">
+        <v>0.6635797185131369</v>
+      </c>
+      <c r="Q37">
+        <v>685.9445398303014</v>
+      </c>
+      <c r="R37">
+        <v>2743.778159321206</v>
+      </c>
+      <c r="S37">
+        <v>0.0444561235961989</v>
+      </c>
+      <c r="T37">
+        <v>0.0271458793457453</v>
       </c>
     </row>
   </sheetData>
